--- a/jpcore-r4/feature/swg5-力価区分関連修正/ValueSet-jp-medication-example-line-vs.xlsx
+++ b/jpcore-r4/feature/swg5-力価区分関連修正/ValueSet-jp-medication-example-line-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T15:32:50+00:00</t>
+    <t>2022-09-02T02:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
